--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tshb-Tshr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tshb-Tshr.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.869589</v>
+        <v>3.280011666666667</v>
       </c>
       <c r="H2">
-        <v>5.608766999999999</v>
+        <v>9.840035</v>
       </c>
       <c r="I2">
-        <v>0.43536849586472</v>
+        <v>0.5749674887425973</v>
       </c>
       <c r="J2">
-        <v>0.43536849586472</v>
+        <v>0.5749674887425973</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.960636</v>
+        <v>0.05057900000000001</v>
       </c>
       <c r="N2">
-        <v>2.881908</v>
+        <v>0.151737</v>
       </c>
       <c r="O2">
-        <v>0.2124324572954377</v>
+        <v>0.01400296657613869</v>
       </c>
       <c r="P2">
-        <v>0.2124324572954377</v>
+        <v>0.01400296657613869</v>
       </c>
       <c r="Q2">
-        <v>1.795994498604</v>
+        <v>0.1658997100883333</v>
       </c>
       <c r="R2">
-        <v>16.163950487436</v>
+        <v>1.493097390795</v>
       </c>
       <c r="S2">
-        <v>0.09248639940556107</v>
+        <v>0.008051250527228989</v>
       </c>
       <c r="T2">
-        <v>0.09248639940556108</v>
+        <v>0.008051250527228989</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.869589</v>
+        <v>3.280011666666667</v>
       </c>
       <c r="H3">
-        <v>5.608766999999999</v>
+        <v>9.840035</v>
       </c>
       <c r="I3">
-        <v>0.43536849586472</v>
+        <v>0.5749674887425973</v>
       </c>
       <c r="J3">
-        <v>0.43536849586472</v>
+        <v>0.5749674887425973</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>1.58558</v>
       </c>
       <c r="O3">
-        <v>0.116876963330717</v>
+        <v>0.146324388539341</v>
       </c>
       <c r="P3">
-        <v>0.1168769633307171</v>
+        <v>0.146324388539341</v>
       </c>
       <c r="Q3">
-        <v>0.9881276422066665</v>
+        <v>1.733573632811111</v>
       </c>
       <c r="R3">
-        <v>8.893148779859999</v>
+        <v>15.6021626953</v>
       </c>
       <c r="S3">
-        <v>0.05088454772653032</v>
+        <v>0.08413176622026097</v>
       </c>
       <c r="T3">
-        <v>0.05088454772653032</v>
+        <v>0.08413176622026097</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.869589</v>
+        <v>3.280011666666667</v>
       </c>
       <c r="H4">
-        <v>5.608766999999999</v>
+        <v>9.840035</v>
       </c>
       <c r="I4">
-        <v>0.43536849586472</v>
+        <v>0.5749674887425973</v>
       </c>
       <c r="J4">
-        <v>0.43536849586472</v>
+        <v>0.5749674887425973</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>9.098744</v>
       </c>
       <c r="O4">
-        <v>0.6706905793738452</v>
+        <v>0.8396726448845202</v>
       </c>
       <c r="P4">
-        <v>0.6706905793738454</v>
+        <v>0.8396726448845202</v>
       </c>
       <c r="Q4">
-        <v>5.670303898738665</v>
+        <v>9.947995490671111</v>
       </c>
       <c r="R4">
-        <v>51.03273508864799</v>
+        <v>89.53195941604</v>
       </c>
       <c r="S4">
-        <v>0.2919975487326286</v>
+        <v>0.4827844719951073</v>
       </c>
       <c r="T4">
-        <v>0.2919975487326287</v>
+        <v>0.4827844719951073</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>2.063652</v>
       </c>
       <c r="I5">
-        <v>0.1601865556597772</v>
+        <v>0.1205821735470086</v>
       </c>
       <c r="J5">
-        <v>0.1601865556597772</v>
+        <v>0.1205821735470086</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.960636</v>
+        <v>0.05057900000000001</v>
       </c>
       <c r="N5">
-        <v>2.881908</v>
+        <v>0.151737</v>
       </c>
       <c r="O5">
-        <v>0.2124324572954377</v>
+        <v>0.01400296657613869</v>
       </c>
       <c r="P5">
-        <v>0.2124324572954377</v>
+        <v>0.01400296657613869</v>
       </c>
       <c r="Q5">
-        <v>0.660806134224</v>
+        <v>0.034792484836</v>
       </c>
       <c r="R5">
-        <v>5.947255208016001</v>
+        <v>0.313132363524</v>
       </c>
       <c r="S5">
-        <v>0.03402882364449886</v>
+        <v>0.001688508145856916</v>
       </c>
       <c r="T5">
-        <v>0.03402882364449887</v>
+        <v>0.001688508145856916</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>2.063652</v>
       </c>
       <c r="I6">
-        <v>0.1601865556597772</v>
+        <v>0.1205821735470086</v>
       </c>
       <c r="J6">
-        <v>0.1601865556597772</v>
+        <v>0.1205821735470086</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,10 +806,10 @@
         <v>1.58558</v>
       </c>
       <c r="O6">
-        <v>0.116876963330717</v>
+        <v>0.146324388539341</v>
       </c>
       <c r="P6">
-        <v>0.1168769633307171</v>
+        <v>0.146324388539341</v>
       </c>
       <c r="Q6">
         <v>0.3635650375733334</v>
@@ -818,10 +818,10 @@
         <v>3.272085338160001</v>
       </c>
       <c r="S6">
-        <v>0.01872211819192164</v>
+        <v>0.01764411281301072</v>
       </c>
       <c r="T6">
-        <v>0.01872211819192164</v>
+        <v>0.01764411281301073</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>2.063652</v>
       </c>
       <c r="I7">
-        <v>0.1601865556597772</v>
+        <v>0.1205821735470086</v>
       </c>
       <c r="J7">
-        <v>0.1601865556597772</v>
+        <v>0.1205821735470086</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>9.098744</v>
       </c>
       <c r="O7">
-        <v>0.6706905793738452</v>
+        <v>0.8396726448845202</v>
       </c>
       <c r="P7">
-        <v>0.6706905793738454</v>
+        <v>0.8396726448845202</v>
       </c>
       <c r="Q7">
         <v>2.086293472565333</v>
@@ -880,10 +880,10 @@
         <v>18.776641253088</v>
       </c>
       <c r="S7">
-        <v>0.1074356138233567</v>
+        <v>0.1012495525881409</v>
       </c>
       <c r="T7">
-        <v>0.1074356138233567</v>
+        <v>0.1012495525881409</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>5.210385</v>
       </c>
       <c r="I8">
-        <v>0.4044449484755027</v>
+        <v>0.3044503377103941</v>
       </c>
       <c r="J8">
-        <v>0.4044449484755027</v>
+        <v>0.3044503377103941</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.960636</v>
+        <v>0.05057900000000001</v>
       </c>
       <c r="N8">
-        <v>2.881908</v>
+        <v>0.151737</v>
       </c>
       <c r="O8">
-        <v>0.2124324572954377</v>
+        <v>0.01400296657613869</v>
       </c>
       <c r="P8">
-        <v>0.2124324572954377</v>
+        <v>0.01400296657613869</v>
       </c>
       <c r="Q8">
-        <v>1.66842780162</v>
+        <v>0.08784535430500001</v>
       </c>
       <c r="R8">
-        <v>15.01585021458</v>
+        <v>0.7906081887450002</v>
       </c>
       <c r="S8">
-        <v>0.08591723424537771</v>
+        <v>0.004263207903052785</v>
       </c>
       <c r="T8">
-        <v>0.08591723424537773</v>
+        <v>0.004263207903052786</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>5.210385</v>
       </c>
       <c r="I9">
-        <v>0.4044449484755027</v>
+        <v>0.3044503377103941</v>
       </c>
       <c r="J9">
-        <v>0.4044449484755027</v>
+        <v>0.3044503377103941</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,22 +992,22 @@
         <v>1.58558</v>
       </c>
       <c r="O9">
-        <v>0.116876963330717</v>
+        <v>0.146324388539341</v>
       </c>
       <c r="P9">
-        <v>0.1168769633307171</v>
+        <v>0.146324388539341</v>
       </c>
       <c r="Q9">
         <v>0.9179424720333335</v>
       </c>
       <c r="R9">
-        <v>8.261482248300002</v>
+        <v>8.2614822483</v>
       </c>
       <c r="S9">
-        <v>0.04727029741226507</v>
+        <v>0.04454850950606928</v>
       </c>
       <c r="T9">
-        <v>0.04727029741226508</v>
+        <v>0.04454850950606929</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>5.210385</v>
       </c>
       <c r="I10">
-        <v>0.4044449484755027</v>
+        <v>0.3044503377103941</v>
       </c>
       <c r="J10">
-        <v>0.4044449484755027</v>
+        <v>0.3044503377103941</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>9.098744</v>
       </c>
       <c r="O10">
-        <v>0.6706905793738452</v>
+        <v>0.8396726448845202</v>
       </c>
       <c r="P10">
-        <v>0.6706905793738454</v>
+        <v>0.8396726448845202</v>
       </c>
       <c r="Q10">
         <v>5.267551028493334</v>
@@ -1066,10 +1066,10 @@
         <v>47.40795925644</v>
       </c>
       <c r="S10">
-        <v>0.2712574168178599</v>
+        <v>0.255638620301272</v>
       </c>
       <c r="T10">
-        <v>0.27125741681786</v>
+        <v>0.255638620301272</v>
       </c>
     </row>
   </sheetData>
